--- a/output/zamienie/2018/sheets/year_2018.xlsx
+++ b/output/zamienie/2018/sheets/year_2018.xlsx
@@ -481,159 +481,135 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>40.40645161290323</v>
+        <v>45.96385867259154</v>
       </c>
       <c r="C2" t="n">
-        <v>31.21290322580646</v>
+        <v>41.84074342426718</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>36.41785714285714</v>
+        <v>42.89374330063505</v>
       </c>
       <c r="C3" t="n">
-        <v>30.91071428571428</v>
+        <v>40.3947098810803</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>39.87096774193549</v>
+        <v>44.65415329850825</v>
       </c>
       <c r="C4" t="n">
-        <v>31.6258064516129</v>
+        <v>40.985237748049</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>43.02</v>
+        <v>45.83510892524504</v>
       </c>
       <c r="C5" t="n">
-        <v>26.70666666666667</v>
+        <v>39.52290852398423</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>43.2516129032258</v>
+        <v>47.39189351973798</v>
       </c>
       <c r="C6" t="n">
-        <v>32.30322580645161</v>
+        <v>41.73700827998782</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>45.62</v>
+        <v>47.68788704292576</v>
       </c>
       <c r="C7" t="n">
-        <v>21.54666666666666</v>
+        <v>38.9951477560902</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>42.50000000000001</v>
+        <v>47.85876095167492</v>
       </c>
       <c r="C8" t="n">
-        <v>21.56451612903226</v>
+        <v>37.18258330960998</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>36.80645161290322</v>
+        <v>42.56464012121556</v>
       </c>
       <c r="C9" t="n">
-        <v>23.23225806451613</v>
+        <v>39.5455999886425</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>37.14666666666667</v>
+        <v>43.05509659953562</v>
       </c>
       <c r="C10" t="n">
-        <v>22.96</v>
+        <v>38.46106863875711</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.23870967741935</v>
+        <v>45.99130616815959</v>
       </c>
       <c r="C11" t="n">
-        <v>29.3774193548387</v>
+        <v>40.81647245763908</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>39.3</v>
+        <v>45.24667339364144</v>
       </c>
       <c r="C12" t="n">
-        <v>28.92333333333333</v>
+        <v>41.84524967840034</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>36.98709677419355</v>
+        <v>42.73725285900771</v>
       </c>
       <c r="C13" t="n">
-        <v>28.33225806451613</v>
+        <v>42.60434086068365</v>
       </c>
     </row>
   </sheetData>
